--- a/public/ekonomi_A.xlsx
+++ b/public/ekonomi_A.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\laravel6-admin\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7FC3C0-8642-4FB3-A617-6D8619263F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>ekonomi_A</t>
   </si>
@@ -146,122 +141,19 @@
   </si>
   <si>
     <t>EKA PANJI SATRIA</t>
-  </si>
-  <si>
-    <t>ELA ANGGRAENI</t>
-  </si>
-  <si>
-    <t>GEISKA AYU WULAN ANGGRAENY</t>
-  </si>
-  <si>
-    <t>INTAN MUSTIKA SARI</t>
-  </si>
-  <si>
-    <t>KRISNATA BINTARI CAHYANINGRUM</t>
-  </si>
-  <si>
-    <t>MALIKHATUN NIKMAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD BIMASAKA WIKASMORO</t>
-  </si>
-  <si>
-    <t>RINDI MIASARI</t>
-  </si>
-  <si>
-    <t>RUDI IRAWAN</t>
-  </si>
-  <si>
-    <t>YUDHIS EGAR NAWANTO</t>
-  </si>
-  <si>
-    <t>ANI MAFTUKHAH</t>
-  </si>
-  <si>
-    <t>DEFIAN OKY PRATAMA</t>
-  </si>
-  <si>
-    <t>DEVI ROMADHANI</t>
-  </si>
-  <si>
-    <t>ENDANG LESWARI</t>
-  </si>
-  <si>
-    <t>INES DEWISUSILOWATY</t>
-  </si>
-  <si>
-    <t>LUCKY GIAN ARYANTO</t>
-  </si>
-  <si>
-    <t>NONITA RAHAYU</t>
-  </si>
-  <si>
-    <t>PUJI LESTARI</t>
-  </si>
-  <si>
-    <t>BUNGSU KURNIANINGRUM</t>
-  </si>
-  <si>
-    <t>FARIDA DWI LESTARI</t>
-  </si>
-  <si>
-    <t>JUNIAR AYU PRATAMA</t>
-  </si>
-  <si>
-    <t>LUTFI TRIANA INDRIYANI</t>
-  </si>
-  <si>
-    <t>NIA RAHMA WIJAYANTI</t>
-  </si>
-  <si>
-    <t>REVA NINA</t>
-  </si>
-  <si>
-    <t>SINTA DIAH AYU PITALOKA</t>
-  </si>
-  <si>
-    <t>SUWIS ENGGEL MARSELA</t>
-  </si>
-  <si>
-    <t>ADELLIA HANDAYANI</t>
-  </si>
-  <si>
-    <t>AGRES RISMA OKTA SFIVANI</t>
-  </si>
-  <si>
-    <t>BERLIANA AMANDA YUNIASARI</t>
-  </si>
-  <si>
-    <t>ELSA DWI AFRIAN</t>
-  </si>
-  <si>
-    <t>GALANG EKA KURNIAWAN</t>
-  </si>
-  <si>
-    <t>MASRURI</t>
-  </si>
-  <si>
-    <t>NUR RAHMASARI</t>
-  </si>
-  <si>
-    <t>PUJI LESTARI RAHAYU</t>
-  </si>
-  <si>
-    <t>RAHMA AMANDA NINGSIH</t>
-  </si>
-  <si>
-    <t>SINTIA RISKI YANI</t>
-  </si>
-  <si>
-    <t>RICO HENDRIAWAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -272,37 +164,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -592,21 +475,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B74"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -622,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -630,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -638,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -646,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -654,7 +540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -662,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -670,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -678,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -686,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -694,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -702,7 +588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -710,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -718,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -726,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -734,7 +620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -742,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -750,7 +636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -758,7 +644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -766,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -774,7 +660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -782,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -790,7 +676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -798,7 +684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -806,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -814,7 +700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -822,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -830,7 +716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -838,7 +724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -846,7 +732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -854,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -862,7 +748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -870,7 +756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -878,7 +764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -886,7 +772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -894,7 +780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -902,188 +788,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>